--- a/Input/GIG/benefits1.xlsx
+++ b/Input/GIG/benefits1.xlsx
@@ -133,7 +133,7 @@
     <t xml:space="preserve">Smart Health - Global</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf - (IP) AXA 1 / (OP) AXA 1</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 1 _ (OP) AXA 1</t>
   </si>
   <si>
     <t xml:space="preserve">AED 7,500,000</t>
@@ -197,7 +197,7 @@
     <t xml:space="preserve">GIG</t>
   </si>
   <si>
-    <t xml:space="preserve">NE/Dubai</t>
+    <t xml:space="preserve">AbuDhabi</t>
   </si>
   <si>
     <t xml:space="preserve">single</t>
@@ -209,7 +209,7 @@
     <t xml:space="preserve">Smart Health - Regional</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf - (IP) AXA 2 / (OP) AXA 2</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 2 _ (OP) AXA 2</t>
   </si>
   <si>
     <t xml:space="preserve">AED 2,500,000</t>
@@ -244,7 +244,7 @@
     <t xml:space="preserve">Smart Health - Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf - (IP) AXA 3 / (OP) AXA 4</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 3 _ (OP) AXA 4</t>
   </si>
   <si>
     <t xml:space="preserve">AED 500,000</t>
@@ -267,7 +267,7 @@
     <t xml:space="preserve">Smart Health - Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 4 / (OP) AXA 5</t>
+    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 4 _ (OP) AXA 5</t>
   </si>
   <si>
     <t xml:space="preserve">AED 250,000</t>
@@ -294,7 +294,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,10 +323,16 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -371,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -389,6 +395,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -411,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:AK5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -420,7 +430,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.7"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.81"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="31" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="33.62"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,7 +661,7 @@
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -834,7 +846,7 @@
       <c r="A5" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
